--- a/biology/Zoologie/Bondrée_orientale/Bondrée_orientale.xlsx
+++ b/biology/Zoologie/Bondrée_orientale/Bondrée_orientale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_orientale</t>
+          <t>Bondrée_orientale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pernis ptilorhynchus
 La Bondrée orientale (Pernis ptilorhynchus) est une espèce d'oiseaux de la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_orientale</t>
+          <t>Bondrée_orientale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend de manière disjointe : d'une part dans le sud de la Sibérie, en Manchourie et au Japon ; en Asie du Sud et du Sud-Est de l'autre.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_orientale</t>
+          <t>Bondrée_orientale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les forêts tropicales, la bondrée orientale vit au sommet des arbres émergents tels les dipterocarpaceae, les Coelostegia, les Neesia malayana et les Koompassia (en effet seuls les oiseaux et les insectes peuvent atteindre le sommet de ces arbres géants)[1].
-Outre dans les forêts tropicales et tempérées, on la trouve également à proximité des zones cultivées et dans les semi-déserts, jusqu'à 1800 m d''altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les forêts tropicales, la bondrée orientale vit au sommet des arbres émergents tels les dipterocarpaceae, les Coelostegia, les Neesia malayana et les Koompassia (en effet seuls les oiseaux et les insectes peuvent atteindre le sommet de ces arbres géants).
+Outre dans les forêts tropicales et tempérées, on la trouve également à proximité des zones cultivées et dans les semi-déserts, jusqu'à 1800 m d''altitude.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_orientale</t>
+          <t>Bondrée_orientale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur plumage est très variable, mais certaines formes imitent le plumage d'espèces d'aigles des régions où on les rencontre. On pense que cette évolution a pour fonction de les protéger en imitant le plumage d'espèces plus puissantes. C'est le cas de certaines formes de P. p. torquatus, qui imite l'aigle de Blyth (Spizaetus alboniger)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur plumage est très variable, mais certaines formes imitent le plumage d'espèces d'aigles des régions où on les rencontre. On pense que cette évolution a pour fonction de les protéger en imitant le plumage d'espèces plus puissantes. C'est le cas de certaines formes de P. p. torquatus, qui imite l'aigle de Blyth (Spizaetus alboniger).
 Les oiseaux des régions les plus au Nord de sa répartition (sous-espèce orientalis) sont migratrices.
-Alimentation
-La Bondrée orientale est un rapace diurne carnivore. Son régime alimentaire est très spécial : Elle mange les larves des ruches d'abeilles et de guêpes et avale au passage du miel et de la cire[3]. Elle mange aussi des insectes, en particulier des cigales, des reptiles, des amphibiens et des petits mammifères.
 </t>
         </is>
       </c>
@@ -591,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bondr%C3%A9e_orientale</t>
+          <t>Bondrée_orientale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +622,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bondrée orientale est un rapace diurne carnivore. Son régime alimentaire est très spécial : Elle mange les larves des ruches d'abeilles et de guêpes et avale au passage du miel et de la cire. Elle mange aussi des insectes, en particulier des cigales, des reptiles, des amphibiens et des petits mammifères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bondrée_orientale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bondr%C3%A9e_orientale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des six sous-espèces suivantes (ordre phylogénique) :
 Pernis ptilorhynchus orientalis  Taczanowski, 1891, la bondrée de Sibérie, parfois considérée comme une espèce séparée, du Sud centre de la Sibérie jusqu'é Sakhaline, au N-E de la Chine, en Corée et au Japon;
@@ -617,7 +672,7 @@
 Pernis ptilorhynchus torquatus  Lesson, 1830, dans la Péninsule malaise, Sumatra et Bornéo;
 Pernis ptilorhynchus ptilorhynchus  (Temminck) 1821, à Java
 Pernis ptilorhynchus palawanensis  Stresemann, 1940, Ouest des Philippines (Calauit et Palawan)
-Pernis ptilorhynchus philippensis  Mayr, 1939, Nord et Est des Philippines[4].</t>
+Pernis ptilorhynchus philippensis  Mayr, 1939, Nord et Est des Philippines.</t>
         </is>
       </c>
     </row>
